--- a/Data/102018/nhanvien.xlsx
+++ b/Data/102018/nhanvien.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872CBFDC-EE55-413E-9CAE-B50B09331757}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D1B6E-0343-4290-89E7-65F2E5451B96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,13 +61,13 @@
     <t>Duong</t>
   </si>
   <si>
-    <t>*|Duong:0.7</t>
-  </si>
-  <si>
     <t>Dong</t>
   </si>
   <si>
     <t>Hong</t>
+  </si>
+  <si>
+    <t>*|Minh:0.7|Duong:0.7</t>
   </si>
 </sst>
 </file>
@@ -111,12 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,23 +394,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -438,14 +436,20 @@
       <c r="I1" s="1">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1">
+        <v>80</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -474,13 +478,19 @@
         <v>0.01</v>
       </c>
       <c r="J2">
-        <v>0.7</v>
-      </c>
-      <c r="K2" t="s">
+        <v>0.01</v>
+      </c>
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -494,28 +504,34 @@
         <v>1.2E-2</v>
       </c>
       <c r="E3">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G3">
         <v>1.6E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K3">
         <v>0.02</v>
       </c>
-      <c r="I3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -529,28 +545,34 @@
         <v>1.2E-2</v>
       </c>
       <c r="E4">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G4">
         <v>1.6E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K4">
         <v>0.02</v>
       </c>
-      <c r="I4">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="J4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -558,7 +580,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -566,7 +588,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -574,7 +596,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -582,7 +604,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -596,28 +618,34 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I9">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K9">
         <v>1.9E-2</v>
       </c>
-      <c r="I9">
-        <v>0.02</v>
-      </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.7</v>
       </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -631,30 +659,36 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I10">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H10">
+      <c r="J10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K10">
         <v>1.9E-2</v>
       </c>
-      <c r="I10">
-        <v>0.02</v>
-      </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.7</v>
       </c>
-      <c r="K10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>3000</v>
@@ -666,30 +700,36 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I11">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K11">
         <v>1.9E-2</v>
       </c>
-      <c r="I11">
-        <v>0.02</v>
-      </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.7</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>3000</v>
@@ -701,25 +741,31 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E12">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I12">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K12">
         <v>1.9E-2</v>
       </c>
-      <c r="I12">
-        <v>0.02</v>
-      </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.7</v>
       </c>
-      <c r="K12" t="s">
-        <v>8</v>
+      <c r="M12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
